--- a/国策/隐居村落.xlsx
+++ b/国策/隐居村落.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EACA2F3-532E-496A-8DC7-8D0550A5B520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBC09CE-90DD-496D-874E-16E4D5B4D407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -46,6 +47,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -56,6 +58,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -71,6 +74,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -81,6 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,6 +118,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,6 +142,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,6 +153,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,6 +170,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,6 +181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,6 +192,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,6 +203,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,6 +214,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,6 +225,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -227,6 +242,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -237,6 +253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,6 +274,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,6 +285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,6 +302,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,6 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -309,6 +330,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,6 +341,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -329,6 +352,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -339,6 +363,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,6 +374,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -359,6 +385,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -369,6 +396,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,6 +407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,6 +418,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -399,6 +429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,6 +440,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -419,6 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -439,6 +472,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -449,6 +483,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -465,6 +500,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -475,6 +511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -491,6 +528,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,6 +539,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -517,6 +556,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,6 +567,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -543,6 +584,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -553,6 +595,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -569,6 +612,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -579,6 +623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -595,6 +640,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -605,6 +651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,6 +668,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -631,6 +679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -647,6 +696,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -657,6 +707,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -673,6 +724,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -683,6 +735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -693,6 +746,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -703,6 +757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -769,6 +824,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -779,6 +835,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -789,6 +846,7 @@
         <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -799,6 +857,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,6 +868,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -819,6 +879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -829,6 +890,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -839,6 +901,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -860,6 +923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -870,6 +934,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -880,6 +945,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -890,6 +956,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -900,6 +967,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -916,6 +984,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -926,6 +995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -936,6 +1006,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -946,6 +1017,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -956,6 +1028,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -966,6 +1039,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -982,10 +1056,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>愚民{30天}{增援率：-5%}{古之为道者，非以明民，将以愚之}（注：需要报怨以德+治人事天）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>*兵者不详{30天}{获得</t>
     </r>
@@ -994,6 +1064,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1004,6 +1075,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1014,6 +1086,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1024,6 +1097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1034,6 +1108,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1044,6 +1119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1054,6 +1130,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1064,6 +1141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1084,6 +1162,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1094,6 +1173,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1104,6 +1184,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1114,6 +1195,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1124,6 +1206,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1134,6 +1217,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1144,6 +1228,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1154,6 +1239,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1164,6 +1250,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1174,6 +1261,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1184,6 +1272,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1194,6 +1283,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1204,6 +1294,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1214,6 +1305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1224,6 +1316,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1234,6 +1327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,6 +1338,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1254,6 +1349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1264,6 +1360,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1274,6 +1371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1295,6 +1393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1305,6 +1404,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1315,6 +1415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1325,6 +1426,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1335,6 +1437,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1351,6 +1454,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1361,6 +1465,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1371,6 +1476,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,6 +1487,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1391,6 +1498,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1401,6 +1509,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,6 +1520,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1421,6 +1531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1431,6 +1542,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1441,6 +1553,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1451,6 +1564,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1461,6 +1575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1471,6 +1586,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1481,6 +1597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1497,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1507,6 +1625,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1523,6 +1642,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1533,6 +1653,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1549,6 +1670,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1559,6 +1681,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1569,6 +1692,7 @@
         <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,6 +1703,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1589,6 +1714,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1599,6 +1725,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1615,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1625,6 +1753,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1641,6 +1770,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1651,6 +1781,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1661,6 +1792,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1671,6 +1803,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1681,6 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1691,6 +1825,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1707,6 +1842,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1717,6 +1853,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1733,6 +1870,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1743,6 +1881,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1763,6 +1902,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1773,6 +1913,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1789,6 +1930,7 @@
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1799,6 +1941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1815,6 +1958,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1825,6 +1969,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1835,6 +1980,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1845,6 +1991,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1861,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1871,6 +2019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1881,6 +2030,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1891,6 +2041,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1907,6 +2058,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1917,6 +2069,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1927,6 +2080,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1937,6 +2091,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1964,6 +2119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1985,6 +2141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2001,6 +2158,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2011,6 +2169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2027,6 +2186,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2037,6 +2197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2053,6 +2214,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2063,6 +2225,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2079,6 +2242,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2089,6 +2253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2105,6 +2270,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2115,6 +2281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2131,6 +2298,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2141,6 +2309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2157,6 +2326,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2167,6 +2337,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2177,6 +2348,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2187,6 +2359,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2208,6 +2381,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2224,6 +2398,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2234,6 +2409,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2249,6 +2425,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2259,6 +2436,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2269,6 +2447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2285,6 +2464,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2295,6 +2475,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2305,6 +2486,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2315,6 +2497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2325,6 +2508,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2335,6 +2519,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2345,6 +2530,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2355,6 +2541,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2365,6 +2552,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2375,6 +2563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2391,6 +2580,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2401,6 +2591,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2422,6 +2613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2449,6 +2641,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2459,6 +2652,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2469,6 +2663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2479,6 +2674,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2489,6 +2685,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2505,6 +2702,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2515,6 +2713,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2525,6 +2724,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2535,6 +2735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2545,6 +2746,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2554,6 +2756,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2564,6 +2767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2580,6 +2784,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2590,6 +2795,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2600,6 +2806,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2610,6 +2817,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2620,6 +2828,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2630,6 +2839,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2646,6 +2856,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2656,6 +2867,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2672,6 +2884,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2682,6 +2895,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2698,6 +2912,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2708,6 +2923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2724,6 +2940,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2734,6 +2951,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2750,6 +2968,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2760,6 +2979,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2776,6 +2996,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2786,6 +3007,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2802,6 +3024,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2812,6 +3035,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2828,6 +3052,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2838,6 +3063,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2853,6 +3079,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2863,6 +3090,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2872,6 +3100,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2888,6 +3117,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2898,6 +3128,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2908,6 +3139,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2918,6 +3150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2928,6 +3161,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2938,6 +3172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2948,6 +3183,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2958,6 +3194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2974,6 +3211,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2984,6 +3222,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3000,6 +3239,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3010,6 +3250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3051,6 +3292,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3061,6 +3303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3077,6 +3320,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3087,6 +3331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3181,6 +3426,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3191,6 +3437,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3222,6 +3469,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3492,6 +3740,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，获得</t>
@@ -3511,6 +3760,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，其效果为（每日获得的政治点数+0.1，部队组织度+10%，每月人口+30%，适役人口修正：-10%，生活消费品工厂：1%，稳定度+15%，训练时间-5%，特工位:+1），</t>
@@ -3519,6 +3769,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>获得</t>
@@ -3528,6 +3779,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>小国寡民</t>
@@ -3536,6 +3788,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，其效果为（适役人口修正：-20%，部队攻击：+10%，部队防御：+10%，部队组织度恢复-10%，近战武器：对人员杀伤：+20%，对装甲杀伤：+20%，防御：+20%，突破：+20%，生产花费:+10%）}{小国寡民。使有什伯人之器而不用；使民重死而不远；虽有舟舆，无所乘之；虽有甲兵，无所陈之}</t>
@@ -3618,6 +3871,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3662,6 +3916,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3672,6 +3927,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3682,6 +3938,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3692,6 +3949,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3713,6 +3971,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3723,6 +3982,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3733,6 +3993,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3836,6 +4097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3867,6 +4129,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3894,6 +4157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3929,6 +4193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4156,6 +4421,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4428,6 +4694,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4438,6 +4705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4448,6 +4716,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4458,6 +4727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4468,6 +4738,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4478,6 +4749,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4488,6 +4760,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4498,6 +4771,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4508,6 +4782,7 @@
         <sz val="11"/>
         <color rgb="FFFFC000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4518,6 +4793,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4528,6 +4804,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4538,6 +4815,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4548,6 +4826,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4558,6 +4837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4567,6 +4847,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4587,6 +4868,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4597,6 +4879,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4613,6 +4896,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4623,6 +4907,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4639,6 +4924,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4649,6 +4935,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4665,6 +4952,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4675,6 +4963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4685,6 +4974,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4695,6 +4985,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4945,6 +5236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4961,6 +5253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4971,6 +5264,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4981,6 +5275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4997,6 +5292,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5007,6 +5303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5028,6 +5325,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5049,6 +5347,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5065,6 +5364,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5075,6 +5375,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5096,6 +5397,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5106,6 +5408,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5116,6 +5419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5126,6 +5430,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5136,6 +5441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5146,6 +5452,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5156,6 +5463,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5244,6 +5552,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5254,6 +5563,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5270,6 +5580,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5280,10 +5591,39 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>追加效果：建造速度：-30%}{短寿}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>愚民{30天}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>圣人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追加效果：增援率：-5%}{古之为道者，非以明民，将以愚之}（注：需要报怨以德+治人事天）</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5292,7 +5632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5303,60 +5643,13 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -5365,6 +5658,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -5388,7 +5689,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -5398,29 +5714,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -5438,22 +5736,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5480,7 +5769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5758,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG63" sqref="AG63"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5781,12 +6070,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -5816,7 +6105,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -5921,38 +6210,38 @@
     </row>
     <row r="32" spans="17:25" x14ac:dyDescent="0.2">
       <c r="Y32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="13:27" x14ac:dyDescent="0.2">
       <c r="Z33" s="2" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="13:27" x14ac:dyDescent="0.2">
       <c r="Z34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="13:27" x14ac:dyDescent="0.2">
       <c r="AA35" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="13:27" x14ac:dyDescent="0.2">
       <c r="M36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="13:27" x14ac:dyDescent="0.2">
       <c r="N37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="13:27" x14ac:dyDescent="0.2">
       <c r="O38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="13:27" x14ac:dyDescent="0.2">
@@ -5962,122 +6251,122 @@
     </row>
     <row r="40" spans="13:27" x14ac:dyDescent="0.2">
       <c r="Q40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="13:27" x14ac:dyDescent="0.2">
       <c r="R41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="13:27" x14ac:dyDescent="0.2">
       <c r="S42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="13:27" x14ac:dyDescent="0.2">
       <c r="T43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="13:27" x14ac:dyDescent="0.2">
       <c r="U44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="13:27" x14ac:dyDescent="0.2">
       <c r="V45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="13:27" x14ac:dyDescent="0.2">
       <c r="W46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="13:27" x14ac:dyDescent="0.2">
       <c r="X47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="13:27" x14ac:dyDescent="0.2">
       <c r="Y48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="26:34" x14ac:dyDescent="0.2">
       <c r="Z49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AA50" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AB51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AC52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AD53" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AE54" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AF55" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG56" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG58" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG60" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG62" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="26:34" x14ac:dyDescent="0.2">
       <c r="AG63" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="26:34" x14ac:dyDescent="0.2">
@@ -6087,7 +6376,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6097,12 +6386,12 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -6117,12 +6406,12 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G71" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H72" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -6132,7 +6421,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J74" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -6142,472 +6431,471 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M76" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N77" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O79" s="1"/>
       <c r="P79" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q80" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="18:29" x14ac:dyDescent="0.2">
       <c r="R81" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="18:29" x14ac:dyDescent="0.2">
       <c r="S82" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="18:29" x14ac:dyDescent="0.2">
       <c r="T83" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="18:29" x14ac:dyDescent="0.2">
       <c r="U84" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="18:29" x14ac:dyDescent="0.2">
       <c r="V85" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="18:29" x14ac:dyDescent="0.2">
       <c r="U86" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="18:29" x14ac:dyDescent="0.2">
       <c r="V87" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="18:29" x14ac:dyDescent="0.2">
       <c r="V88" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="18:29" x14ac:dyDescent="0.2">
       <c r="W89" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="18:29" x14ac:dyDescent="0.2">
       <c r="W90" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="18:29" x14ac:dyDescent="0.2">
       <c r="X91" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="18:29" x14ac:dyDescent="0.2">
       <c r="Y92" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="18:29" x14ac:dyDescent="0.2">
       <c r="Z93" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="18:29" x14ac:dyDescent="0.2">
       <c r="AA94" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="18:29" x14ac:dyDescent="0.2">
       <c r="AB95" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="18:29" x14ac:dyDescent="0.2">
       <c r="AC96" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="AD97" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F103" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="H105" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I106" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="J107" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="K108" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H117" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J119" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K120" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M122" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M123" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C126" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D127" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E128" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C129" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D130" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E131" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F132" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C133" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D134" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F137" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G138" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C140" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D142" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C143" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D145" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C146" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E147" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C149" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D151" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E152" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E153" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C154" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C155" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D156" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E157" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E158" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F159" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D164" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C166" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D167" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/国策/隐居村落.xlsx
+++ b/国策/隐居村落.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\documents\GitHub\FocusTree\FocusTree\国策\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBC09CE-90DD-496D-874E-16E4D5B4D407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F1477-2D80-402C-9F89-15A2633A7AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6047,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6374,247 +6374,246 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D68" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E69" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G71" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H72" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I73" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J74" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K75" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M76" s="2" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L76" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N77" s="2" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M77" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O78" s="2" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N78" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O79" s="1"/>
-      <c r="P79" s="2" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N79" s="1"/>
+      <c r="O79" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q80" s="2" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="R81" s="2" t="s">
+    <row r="81" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="Q81" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="S82" s="2" t="s">
+    <row r="82" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="R82" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="T83" s="2" t="s">
+    <row r="83" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="S83" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="U84" s="2" t="s">
+    <row r="84" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="T84" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="V85" s="2" t="s">
+    <row r="85" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="U85" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="U86" s="2" t="s">
+    <row r="86" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="T86" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="V87" s="2" t="s">
+    <row r="87" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="U87" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="V88" s="2" t="s">
+    <row r="88" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="U88" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="W89" s="2" t="s">
+    <row r="89" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="V89" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="W90" s="2" t="s">
+    <row r="90" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="V90" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="X91" s="2" t="s">
+    <row r="91" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="W91" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="Y92" s="2" t="s">
+    <row r="92" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="X92" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="Z93" s="2" t="s">
+    <row r="93" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="Y93" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="AA94" s="2" t="s">
+    <row r="94" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="Z94" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="AB95" s="2" t="s">
+    <row r="95" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="AA95" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="18:29" x14ac:dyDescent="0.2">
-      <c r="AC96" s="2" t="s">
+    <row r="96" spans="17:28" x14ac:dyDescent="0.2">
+      <c r="AB96" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="AD97" s="2" t="s">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC97" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="D101" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="E102" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="F103" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G104" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="H105" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="I106" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="J107" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="K108" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L109" s="2"/>
-      <c r="M109" s="2" t="s">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="L109" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
         <v>88</v>
       </c>
@@ -6790,7 +6789,7 @@
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E147" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>119</v>
       </c>
     </row>
